--- a/jyx2/excel/JYX2武功.xlsx
+++ b/jyx2/excel/JYX2武功.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jyqxz-rematser\svn\trunk\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD85D5A-B4CE-49F9-9643-DB9B85D8AF22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -33,7 +27,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>未知</t>
@@ -43,7 +36,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -54,7 +47,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>未知</t>
@@ -64,7 +56,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -75,7 +67,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>未知</t>
@@ -85,7 +76,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -96,7 +87,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>未知</t>
@@ -106,7 +96,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -117,7 +107,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>未知</t>
@@ -127,7 +116,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -159,7 +148,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -168,7 +157,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级攻击力</t>
@@ -207,7 +195,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -216,7 +204,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级移动范围</t>
@@ -255,7 +242,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -264,7 +251,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级杀伤范围</t>
@@ -303,7 +289,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -312,7 +298,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级加内力</t>
@@ -351,7 +336,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -360,7 +345,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>级杀伤内力</t>
@@ -394,19 +378,67 @@
     <t>10级杀伤内力</t>
   </si>
   <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
     <t>野球拳</t>
+  </si>
+  <si>
+    <t>武当长拳</t>
+  </si>
+  <si>
+    <t>罗汉拳</t>
+  </si>
+  <si>
+    <t>灵蛇拳</t>
   </si>
   <si>
     <t>神王毒掌</t>
   </si>
   <si>
+    <t>七伤拳</t>
+  </si>
+  <si>
     <t>混元掌</t>
+  </si>
+  <si>
+    <t>寒冰绵掌</t>
+  </si>
+  <si>
+    <t>鹰爪功</t>
+  </si>
+  <si>
+    <t>逍遥掌</t>
+  </si>
+  <si>
+    <t>铁掌</t>
+  </si>
+  <si>
+    <t>幻阴指</t>
   </si>
   <si>
     <t>寒冰神掌</t>
   </si>
   <si>
+    <t>千手如来掌</t>
+  </si>
+  <si>
+    <t>天山六阳掌</t>
+  </si>
+  <si>
     <t>玄冥神掌</t>
+  </si>
+  <si>
+    <t>冰蚕毒掌</t>
+  </si>
+  <si>
+    <t>龙象般若功</t>
+  </si>
+  <si>
+    <t>一阳指</t>
+  </si>
+  <si>
+    <t>太极拳</t>
   </si>
   <si>
     <t>空明拳</t>
@@ -416,6 +448,12 @@
   </si>
   <si>
     <t>太玄神功</t>
+  </si>
+  <si>
+    <t>黯然销魂掌</t>
+  </si>
+  <si>
+    <t>降龙十八掌</t>
   </si>
   <si>
     <t>葵花神功</t>
@@ -430,7 +468,100 @@
     <t>北冥神功</t>
   </si>
   <si>
+    <t>六脉神剑</t>
+  </si>
+  <si>
+    <t>躺尸剑法</t>
+  </si>
+  <si>
+    <t>青城剑法</t>
+  </si>
+  <si>
+    <t>冰雪剑法</t>
+  </si>
+  <si>
+    <t>恒山剑法</t>
+  </si>
+  <si>
+    <t>泰山剑法</t>
+  </si>
+  <si>
+    <t>衡山剑法</t>
+  </si>
+  <si>
+    <t>华山剑法</t>
+  </si>
+  <si>
+    <t>嵩山剑法</t>
+  </si>
+  <si>
+    <t>全真剑法</t>
+  </si>
+  <si>
+    <t>峨嵋剑法</t>
+  </si>
+  <si>
+    <t>武当剑法</t>
+  </si>
+  <si>
+    <t>万花剑法</t>
+  </si>
+  <si>
+    <t>泼墨剑法</t>
+  </si>
+  <si>
+    <t>雪山剑法</t>
+  </si>
+  <si>
+    <t>泰山十八盘</t>
+  </si>
+  <si>
+    <t>回峰落雁剑</t>
+  </si>
+  <si>
+    <t>两仪剑法</t>
+  </si>
+  <si>
     <t>太岳三青峰</t>
+  </si>
+  <si>
+    <t>玉女素心剑</t>
+  </si>
+  <si>
+    <t>逍遥剑法</t>
+  </si>
+  <si>
+    <t>慕容剑法</t>
+  </si>
+  <si>
+    <t>倚天剑法</t>
+  </si>
+  <si>
+    <t>七星剑法</t>
+  </si>
+  <si>
+    <t>金蛇剑法</t>
+  </si>
+  <si>
+    <t>苗家剑法</t>
+  </si>
+  <si>
+    <t>玉箫剑法</t>
+  </si>
+  <si>
+    <t>玄铁剑法</t>
+  </si>
+  <si>
+    <t>太极剑法</t>
+  </si>
+  <si>
+    <t>达摩剑法</t>
+  </si>
+  <si>
+    <t>辟邪剑法</t>
+  </si>
+  <si>
+    <t>独孤九剑</t>
   </si>
   <si>
     <t>西瓜刀法</t>
@@ -439,19 +570,64 @@
     <t>血刀大法</t>
   </si>
   <si>
+    <t>狂风刀法</t>
+  </si>
+  <si>
+    <t>反两仪刀法</t>
+  </si>
+  <si>
+    <t>火焰刀法</t>
+  </si>
+  <si>
     <t>胡家刀法</t>
+  </si>
+  <si>
+    <t>霹雳刀法</t>
+  </si>
+  <si>
+    <t>神龙双勾</t>
+  </si>
+  <si>
+    <t>大轮杖法</t>
+  </si>
+  <si>
+    <t>怪异武器</t>
+  </si>
+  <si>
+    <t>炼心弹</t>
   </si>
   <si>
     <t>叫化棍法</t>
   </si>
   <si>
+    <t>火焰发射器</t>
+  </si>
+  <si>
+    <t>鳄鱼</t>
+  </si>
+  <si>
     <t>大蜘珠</t>
+  </si>
+  <si>
+    <t>毒龙鞭法</t>
+  </si>
+  <si>
+    <t>黄沙万里鞭</t>
   </si>
   <si>
     <t>雪怪</t>
   </si>
   <si>
+    <t>判官笔</t>
+  </si>
+  <si>
+    <t>持棋盘</t>
+  </si>
+  <si>
     <t>大剪刀</t>
+  </si>
+  <si>
+    <t>持瑶琴</t>
   </si>
   <si>
     <t>大蟒蛇</t>
@@ -460,7 +636,22 @@
     <t>金花杖法</t>
   </si>
   <si>
+    <t>神龙鹿杖</t>
+  </si>
+  <si>
     <t>打狗棍法</t>
+  </si>
+  <si>
+    <t>五轮大法</t>
+  </si>
+  <si>
+    <t>松风剑法</t>
+  </si>
+  <si>
+    <t>狮子吼</t>
+  </si>
+  <si>
+    <t>九阳神功</t>
   </si>
   <si>
     <t>用毒</t>
@@ -472,291 +663,20 @@
     <t>医疗</t>
   </si>
   <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当长拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗汉拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵蛇拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>七伤拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰绵掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰爪功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻阴指</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>千手如来掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山六阳掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰蚕毒掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙象般若功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一阳指</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>太极拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黯然销魂掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>降龙十八掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>六脉神剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>躺尸剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青城剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒山剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰山剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡山剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵩山剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>全真剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨嵋剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>万花剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>泼墨剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪山剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰山十八盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回峰落雁剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉女素心剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>慕容剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚天剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>七星剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蛇剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗家剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉箫剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄铁剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>太极剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>达摩剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>辟邪剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>独孤九剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂风刀法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>反两仪刀法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰刀法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳刀法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙双勾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大轮杖法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪异武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼心弹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰发射器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙鞭法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄沙万里鞭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>判官笔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>持棋盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>持瑶琴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙鹿杖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>五轮大法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>松风剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子吼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>九阳神功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>蟒牯朱蛤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -767,43 +687,185 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,8 +878,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -840,21 +1088,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -870,23 +1360,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1215,21 +1749,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BL201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1423,12 +1957,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1617,12 +2151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1811,12 +2345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -2005,12 +2539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -2199,12 +2733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2393,12 +2927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2587,12 +3121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -2781,12 +3315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -2975,12 +3509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -3169,12 +3703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -3363,12 +3897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -3557,12 +4091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -3751,12 +4285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -3945,12 +4479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -4139,12 +4673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -4333,12 +4867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -4527,12 +5061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -4721,12 +5255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -4915,12 +5449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -5109,12 +5643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -5303,12 +5837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -5497,12 +6031,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -5691,12 +6225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -5885,12 +6419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -6079,12 +6613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:64">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -6273,12 +6807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:64">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -6467,12 +7001,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:64">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -6661,12 +7195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:64">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -6855,12 +7389,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:64">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -7049,12 +7583,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:64">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -7243,12 +7777,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:64">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -7437,12 +7971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:64">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -7631,12 +8165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:64">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -7825,12 +8359,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:64">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -8019,12 +8553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:64">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -8213,12 +8747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:64">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -8407,12 +8941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:64">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -8601,12 +9135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:64">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -8795,12 +9329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:64">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -8989,12 +9523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:64">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -9183,12 +9717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:64">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -9377,12 +9911,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:64">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -9571,12 +10105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:64">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -9765,12 +10299,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:64">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -9959,12 +10493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:64">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -10153,12 +10687,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:64">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -10347,12 +10881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:64">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -10541,12 +11075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:64">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -10735,12 +11269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:64">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -10929,12 +11463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:64">
       <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -11123,12 +11657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:64">
       <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -11317,12 +11851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:64">
       <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -11511,12 +12045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:64">
       <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -11705,12 +12239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:64">
       <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -11899,12 +12433,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:64">
       <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -12093,12 +12627,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:64">
       <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -12287,12 +12821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:64">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -12481,12 +13015,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:64">
       <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -12675,12 +13209,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:64">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -12869,12 +13403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:64">
       <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -13063,12 +13597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:64">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -13257,12 +13791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:64">
       <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -13451,12 +13985,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:64">
       <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -13645,12 +14179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:64">
       <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -13839,12 +14373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:64">
       <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -14033,12 +14567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:64">
       <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -14227,12 +14761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:64">
       <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -14421,12 +14955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:64">
       <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -14615,12 +15149,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:64">
       <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -14809,12 +15343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:64">
       <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -15003,12 +15537,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:64">
       <c r="A72" s="2">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -15197,12 +15731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:64">
       <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -15391,12 +15925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:64">
       <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -15585,12 +16119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:64">
       <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -15779,12 +16313,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:64">
       <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -15973,12 +16507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:64">
       <c r="A77" s="2">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -16167,12 +16701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:64">
       <c r="A78" s="2">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -16361,12 +16895,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:64">
       <c r="A79" s="2">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -16555,12 +17089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:64">
       <c r="A80" s="2">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -16749,12 +17283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:64">
       <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -16943,12 +17477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:64">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -17137,12 +17671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:64">
       <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -17331,12 +17865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:64">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -17525,12 +18059,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:64">
       <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -17719,12 +18253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:64">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -17913,12 +18447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:64">
       <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -18107,12 +18641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:64">
       <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -18301,12 +18835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:64">
       <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -18495,12 +19029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:64">
       <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -18689,12 +19223,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:64">
       <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -18883,12 +19417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:64">
       <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -19077,12 +19611,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:64">
       <c r="A93" s="2">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -19271,12 +19805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:64">
       <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -19465,12 +19999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" s="1" customFormat="1" spans="1:64">
       <c r="A95" s="5">
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="C95" s="5">
         <v>0</v>
@@ -19500,7 +20034,7 @@
         <v>2</v>
       </c>
       <c r="L95" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M95" s="5">
         <v>10</v>
@@ -19659,12 +20193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" s="1" customFormat="1" spans="1:64">
       <c r="A96" s="5">
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C96" s="5">
         <v>0</v>
@@ -19694,7 +20228,7 @@
         <v>3</v>
       </c>
       <c r="L96" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M96" s="5">
         <v>10</v>
@@ -19853,12 +20387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" s="1" customFormat="1" spans="1:64">
       <c r="A97" s="5">
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="C97" s="5">
         <v>0</v>
@@ -19888,7 +20422,7 @@
         <v>4</v>
       </c>
       <c r="L97" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M97" s="5">
         <v>10</v>
@@ -20047,7 +20581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="98" ht="16.5" spans="1:64">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -20241,7 +20775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:63">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -20306,7 +20840,7 @@
       <c r="BJ99" s="2"/>
       <c r="BK99" s="2"/>
     </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:63">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -20371,7 +20905,7 @@
       <c r="BJ100" s="2"/>
       <c r="BK100" s="2"/>
     </row>
-    <row r="101" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:63">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -20436,7 +20970,7 @@
       <c r="BJ101" s="2"/>
       <c r="BK101" s="2"/>
     </row>
-    <row r="102" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:63">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -20501,7 +21035,7 @@
       <c r="BJ102" s="2"/>
       <c r="BK102" s="2"/>
     </row>
-    <row r="103" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:63">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -20566,7 +21100,7 @@
       <c r="BJ103" s="2"/>
       <c r="BK103" s="2"/>
     </row>
-    <row r="104" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:63">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -20631,7 +21165,7 @@
       <c r="BJ104" s="2"/>
       <c r="BK104" s="2"/>
     </row>
-    <row r="105" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:63">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -20696,7 +21230,7 @@
       <c r="BJ105" s="2"/>
       <c r="BK105" s="2"/>
     </row>
-    <row r="106" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:63">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -20761,7 +21295,7 @@
       <c r="BJ106" s="2"/>
       <c r="BK106" s="2"/>
     </row>
-    <row r="107" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:63">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -20826,7 +21360,7 @@
       <c r="BJ107" s="2"/>
       <c r="BK107" s="2"/>
     </row>
-    <row r="108" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:63">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -20891,7 +21425,7 @@
       <c r="BJ108" s="2"/>
       <c r="BK108" s="2"/>
     </row>
-    <row r="109" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:63">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -20956,7 +21490,7 @@
       <c r="BJ109" s="2"/>
       <c r="BK109" s="2"/>
     </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:63">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -21021,7 +21555,7 @@
       <c r="BJ110" s="2"/>
       <c r="BK110" s="2"/>
     </row>
-    <row r="111" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:63">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -21086,7 +21620,7 @@
       <c r="BJ111" s="2"/>
       <c r="BK111" s="2"/>
     </row>
-    <row r="112" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:63">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -21151,7 +21685,7 @@
       <c r="BJ112" s="2"/>
       <c r="BK112" s="2"/>
     </row>
-    <row r="113" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:63">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -21216,7 +21750,7 @@
       <c r="BJ113" s="2"/>
       <c r="BK113" s="2"/>
     </row>
-    <row r="114" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:63">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -21281,7 +21815,7 @@
       <c r="BJ114" s="2"/>
       <c r="BK114" s="2"/>
     </row>
-    <row r="115" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:63">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -21346,7 +21880,7 @@
       <c r="BJ115" s="2"/>
       <c r="BK115" s="2"/>
     </row>
-    <row r="116" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:63">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -21411,7 +21945,7 @@
       <c r="BJ116" s="2"/>
       <c r="BK116" s="2"/>
     </row>
-    <row r="117" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:63">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -21476,7 +22010,7 @@
       <c r="BJ117" s="2"/>
       <c r="BK117" s="2"/>
     </row>
-    <row r="118" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:63">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -21541,7 +22075,7 @@
       <c r="BJ118" s="2"/>
       <c r="BK118" s="2"/>
     </row>
-    <row r="119" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:63">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -21606,7 +22140,7 @@
       <c r="BJ119" s="2"/>
       <c r="BK119" s="2"/>
     </row>
-    <row r="120" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:63">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -21671,7 +22205,7 @@
       <c r="BJ120" s="2"/>
       <c r="BK120" s="2"/>
     </row>
-    <row r="121" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:63">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -21736,7 +22270,7 @@
       <c r="BJ121" s="2"/>
       <c r="BK121" s="2"/>
     </row>
-    <row r="122" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:63">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -21801,7 +22335,7 @@
       <c r="BJ122" s="2"/>
       <c r="BK122" s="2"/>
     </row>
-    <row r="123" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:63">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -21866,7 +22400,7 @@
       <c r="BJ123" s="2"/>
       <c r="BK123" s="2"/>
     </row>
-    <row r="124" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:63">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -21931,7 +22465,7 @@
       <c r="BJ124" s="2"/>
       <c r="BK124" s="2"/>
     </row>
-    <row r="125" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:63">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -21996,7 +22530,7 @@
       <c r="BJ125" s="2"/>
       <c r="BK125" s="2"/>
     </row>
-    <row r="126" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:63">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -22061,7 +22595,7 @@
       <c r="BJ126" s="2"/>
       <c r="BK126" s="2"/>
     </row>
-    <row r="127" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:63">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -22126,7 +22660,7 @@
       <c r="BJ127" s="2"/>
       <c r="BK127" s="2"/>
     </row>
-    <row r="128" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:63">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -22191,7 +22725,7 @@
       <c r="BJ128" s="2"/>
       <c r="BK128" s="2"/>
     </row>
-    <row r="129" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:63">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -22256,7 +22790,7 @@
       <c r="BJ129" s="2"/>
       <c r="BK129" s="2"/>
     </row>
-    <row r="130" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:63">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -22321,7 +22855,7 @@
       <c r="BJ130" s="2"/>
       <c r="BK130" s="2"/>
     </row>
-    <row r="131" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:63">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -22386,7 +22920,7 @@
       <c r="BJ131" s="2"/>
       <c r="BK131" s="2"/>
     </row>
-    <row r="132" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:63">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -22451,7 +22985,7 @@
       <c r="BJ132" s="2"/>
       <c r="BK132" s="2"/>
     </row>
-    <row r="133" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:63">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -22516,7 +23050,7 @@
       <c r="BJ133" s="2"/>
       <c r="BK133" s="2"/>
     </row>
-    <row r="134" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:63">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -22581,7 +23115,7 @@
       <c r="BJ134" s="2"/>
       <c r="BK134" s="2"/>
     </row>
-    <row r="135" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:63">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -22646,7 +23180,7 @@
       <c r="BJ135" s="2"/>
       <c r="BK135" s="2"/>
     </row>
-    <row r="136" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:63">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -22711,7 +23245,7 @@
       <c r="BJ136" s="2"/>
       <c r="BK136" s="2"/>
     </row>
-    <row r="137" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:63">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -22776,7 +23310,7 @@
       <c r="BJ137" s="2"/>
       <c r="BK137" s="2"/>
     </row>
-    <row r="138" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:63">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -22841,7 +23375,7 @@
       <c r="BJ138" s="2"/>
       <c r="BK138" s="2"/>
     </row>
-    <row r="139" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:63">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -22906,7 +23440,7 @@
       <c r="BJ139" s="2"/>
       <c r="BK139" s="2"/>
     </row>
-    <row r="140" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:63">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -22971,7 +23505,7 @@
       <c r="BJ140" s="2"/>
       <c r="BK140" s="2"/>
     </row>
-    <row r="141" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:63">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -23036,7 +23570,7 @@
       <c r="BJ141" s="2"/>
       <c r="BK141" s="2"/>
     </row>
-    <row r="142" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:63">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -23101,7 +23635,7 @@
       <c r="BJ142" s="2"/>
       <c r="BK142" s="2"/>
     </row>
-    <row r="143" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:63">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -23166,7 +23700,7 @@
       <c r="BJ143" s="2"/>
       <c r="BK143" s="2"/>
     </row>
-    <row r="144" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:63">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -23231,7 +23765,7 @@
       <c r="BJ144" s="2"/>
       <c r="BK144" s="2"/>
     </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:63">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -23296,7 +23830,7 @@
       <c r="BJ145" s="2"/>
       <c r="BK145" s="2"/>
     </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:63">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -23361,7 +23895,7 @@
       <c r="BJ146" s="2"/>
       <c r="BK146" s="2"/>
     </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:63">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -23426,7 +23960,7 @@
       <c r="BJ147" s="2"/>
       <c r="BK147" s="2"/>
     </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:63">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -23491,7 +24025,7 @@
       <c r="BJ148" s="2"/>
       <c r="BK148" s="2"/>
     </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:63">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -23556,7 +24090,7 @@
       <c r="BJ149" s="2"/>
       <c r="BK149" s="2"/>
     </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:63">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -23621,7 +24155,7 @@
       <c r="BJ150" s="2"/>
       <c r="BK150" s="2"/>
     </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:63">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -23686,7 +24220,7 @@
       <c r="BJ151" s="2"/>
       <c r="BK151" s="2"/>
     </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:63">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -23751,7 +24285,7 @@
       <c r="BJ152" s="2"/>
       <c r="BK152" s="2"/>
     </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:63">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -23816,7 +24350,7 @@
       <c r="BJ153" s="2"/>
       <c r="BK153" s="2"/>
     </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:63">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -23881,7 +24415,7 @@
       <c r="BJ154" s="2"/>
       <c r="BK154" s="2"/>
     </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:63">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -23946,7 +24480,7 @@
       <c r="BJ155" s="2"/>
       <c r="BK155" s="2"/>
     </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:63">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -24011,7 +24545,7 @@
       <c r="BJ156" s="2"/>
       <c r="BK156" s="2"/>
     </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:63">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -24076,7 +24610,7 @@
       <c r="BJ157" s="2"/>
       <c r="BK157" s="2"/>
     </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:63">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -24141,7 +24675,7 @@
       <c r="BJ158" s="2"/>
       <c r="BK158" s="2"/>
     </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:63">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -24206,7 +24740,7 @@
       <c r="BJ159" s="2"/>
       <c r="BK159" s="2"/>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:63">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -24271,7 +24805,7 @@
       <c r="BJ160" s="2"/>
       <c r="BK160" s="2"/>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:63">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -24336,7 +24870,7 @@
       <c r="BJ161" s="2"/>
       <c r="BK161" s="2"/>
     </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:63">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -24401,7 +24935,7 @@
       <c r="BJ162" s="2"/>
       <c r="BK162" s="2"/>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:63">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -24466,7 +25000,7 @@
       <c r="BJ163" s="2"/>
       <c r="BK163" s="2"/>
     </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:63">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -24531,7 +25065,7 @@
       <c r="BJ164" s="2"/>
       <c r="BK164" s="2"/>
     </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:63">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -24596,7 +25130,7 @@
       <c r="BJ165" s="2"/>
       <c r="BK165" s="2"/>
     </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:63">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -24661,7 +25195,7 @@
       <c r="BJ166" s="2"/>
       <c r="BK166" s="2"/>
     </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:63">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -24726,7 +25260,7 @@
       <c r="BJ167" s="2"/>
       <c r="BK167" s="2"/>
     </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:63">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -24791,7 +25325,7 @@
       <c r="BJ168" s="2"/>
       <c r="BK168" s="2"/>
     </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:63">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -24856,7 +25390,7 @@
       <c r="BJ169" s="2"/>
       <c r="BK169" s="2"/>
     </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:63">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -24921,7 +25455,7 @@
       <c r="BJ170" s="2"/>
       <c r="BK170" s="2"/>
     </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:63">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -24986,7 +25520,7 @@
       <c r="BJ171" s="2"/>
       <c r="BK171" s="2"/>
     </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:63">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -25051,7 +25585,7 @@
       <c r="BJ172" s="2"/>
       <c r="BK172" s="2"/>
     </row>
-    <row r="173" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:63">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -25116,7 +25650,7 @@
       <c r="BJ173" s="2"/>
       <c r="BK173" s="2"/>
     </row>
-    <row r="174" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:63">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -25181,7 +25715,7 @@
       <c r="BJ174" s="2"/>
       <c r="BK174" s="2"/>
     </row>
-    <row r="175" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:63">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -25246,7 +25780,7 @@
       <c r="BJ175" s="2"/>
       <c r="BK175" s="2"/>
     </row>
-    <row r="176" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:63">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -25311,7 +25845,7 @@
       <c r="BJ176" s="2"/>
       <c r="BK176" s="2"/>
     </row>
-    <row r="177" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:63">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -25376,7 +25910,7 @@
       <c r="BJ177" s="2"/>
       <c r="BK177" s="2"/>
     </row>
-    <row r="178" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:63">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -25441,7 +25975,7 @@
       <c r="BJ178" s="2"/>
       <c r="BK178" s="2"/>
     </row>
-    <row r="179" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:63">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -25506,7 +26040,7 @@
       <c r="BJ179" s="2"/>
       <c r="BK179" s="2"/>
     </row>
-    <row r="180" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:63">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -25571,7 +26105,7 @@
       <c r="BJ180" s="2"/>
       <c r="BK180" s="2"/>
     </row>
-    <row r="181" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:63">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -25636,7 +26170,7 @@
       <c r="BJ181" s="2"/>
       <c r="BK181" s="2"/>
     </row>
-    <row r="182" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:63">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -25701,7 +26235,7 @@
       <c r="BJ182" s="2"/>
       <c r="BK182" s="2"/>
     </row>
-    <row r="183" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:63">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -25766,7 +26300,7 @@
       <c r="BJ183" s="2"/>
       <c r="BK183" s="2"/>
     </row>
-    <row r="184" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:63">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -25831,7 +26365,7 @@
       <c r="BJ184" s="2"/>
       <c r="BK184" s="2"/>
     </row>
-    <row r="185" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:63">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -25896,7 +26430,7 @@
       <c r="BJ185" s="2"/>
       <c r="BK185" s="2"/>
     </row>
-    <row r="186" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:63">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -25961,7 +26495,7 @@
       <c r="BJ186" s="2"/>
       <c r="BK186" s="2"/>
     </row>
-    <row r="187" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:63">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -26026,7 +26560,7 @@
       <c r="BJ187" s="2"/>
       <c r="BK187" s="2"/>
     </row>
-    <row r="188" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:63">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -26091,7 +26625,7 @@
       <c r="BJ188" s="2"/>
       <c r="BK188" s="2"/>
     </row>
-    <row r="189" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:63">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -26156,7 +26690,7 @@
       <c r="BJ189" s="2"/>
       <c r="BK189" s="2"/>
     </row>
-    <row r="190" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:63">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -26221,7 +26755,7 @@
       <c r="BJ190" s="2"/>
       <c r="BK190" s="2"/>
     </row>
-    <row r="191" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:63">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -26286,7 +26820,7 @@
       <c r="BJ191" s="2"/>
       <c r="BK191" s="2"/>
     </row>
-    <row r="192" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:63">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -26351,7 +26885,7 @@
       <c r="BJ192" s="2"/>
       <c r="BK192" s="2"/>
     </row>
-    <row r="193" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:63">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -26416,7 +26950,7 @@
       <c r="BJ193" s="2"/>
       <c r="BK193" s="2"/>
     </row>
-    <row r="194" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:63">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -26481,7 +27015,7 @@
       <c r="BJ194" s="2"/>
       <c r="BK194" s="2"/>
     </row>
-    <row r="195" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:63">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -26546,7 +27080,7 @@
       <c r="BJ195" s="2"/>
       <c r="BK195" s="2"/>
     </row>
-    <row r="196" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:63">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -26611,7 +27145,7 @@
       <c r="BJ196" s="2"/>
       <c r="BK196" s="2"/>
     </row>
-    <row r="197" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:63">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -26676,7 +27210,7 @@
       <c r="BJ197" s="2"/>
       <c r="BK197" s="2"/>
     </row>
-    <row r="198" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:63">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -26741,7 +27275,7 @@
       <c r="BJ198" s="2"/>
       <c r="BK198" s="2"/>
     </row>
-    <row r="199" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:63">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -26806,7 +27340,7 @@
       <c r="BJ199" s="2"/>
       <c r="BK199" s="2"/>
     </row>
-    <row r="200" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:63">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -26871,7 +27405,7 @@
       <c r="BJ200" s="2"/>
       <c r="BK200" s="2"/>
     </row>
-    <row r="201" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:63">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -26937,8 +27471,8 @@
       <c r="BK201" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/excel/JYX2武功.xlsx
+++ b/jyx2/excel/JYX2武功.xlsx
@@ -671,12 +671,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -716,7 +716,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,15 +729,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +746,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,15 +766,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,25 +790,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,6 +823,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -845,21 +854,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,7 +874,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,19 +940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,25 +958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,19 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,19 +1000,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,37 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,31 +1042,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,6 +1146,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1175,17 +1180,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1194,10 +1188,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,22 +1200,22 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,121 +1224,121 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1757,8 +1751,8 @@
   <sheetPr/>
   <dimension ref="A1:BL201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14214,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65" s="2">
         <v>2</v>
@@ -18870,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M89" s="2">
         <v>3</v>

--- a/jyx2/excel/JYX2武功.xlsx
+++ b/jyx2/excel/JYX2武功.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
   <si>
     <t>代号</t>
   </si>
@@ -665,16 +665,19 @@
   <si>
     <t>蟒牯朱蛤</t>
   </si>
+  <si>
+    <t>暗器</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -708,8 +711,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,7 +770,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -738,21 +778,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,27 +800,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,19 +839,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,28 +857,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,13 +877,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,121 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,13 +1015,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,6 +1087,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1094,6 +1112,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,30 +1160,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,186 +1183,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1751,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:BL201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20769,70 +20772,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:63">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-      <c r="AB99" s="2"/>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="2"/>
-      <c r="AF99" s="2"/>
-      <c r="AG99" s="2"/>
-      <c r="AH99" s="2"/>
-      <c r="AI99" s="2"/>
-      <c r="AJ99" s="2"/>
-      <c r="AK99" s="2"/>
-      <c r="AL99" s="2"/>
-      <c r="AM99" s="2"/>
-      <c r="AN99" s="2"/>
-      <c r="AO99" s="2"/>
-      <c r="AP99" s="2"/>
-      <c r="AQ99" s="2"/>
-      <c r="AR99" s="2"/>
-      <c r="AS99" s="2"/>
-      <c r="AT99" s="2"/>
-      <c r="AU99" s="2"/>
-      <c r="AV99" s="2"/>
-      <c r="AW99" s="2"/>
-      <c r="AX99" s="2"/>
-      <c r="AY99" s="2"/>
-      <c r="AZ99" s="2"/>
-      <c r="BA99" s="2"/>
-      <c r="BB99" s="2"/>
-      <c r="BC99" s="2"/>
-      <c r="BD99" s="2"/>
-      <c r="BE99" s="2"/>
-      <c r="BF99" s="2"/>
-      <c r="BG99" s="2"/>
-      <c r="BH99" s="2"/>
-      <c r="BI99" s="2"/>
-      <c r="BJ99" s="2"/>
-      <c r="BK99" s="2"/>
+    <row r="99" s="1" customFormat="1" spans="1:64">
+      <c r="A99" s="5">
+        <v>97</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0</v>
+      </c>
+      <c r="H99" s="5">
+        <v>2</v>
+      </c>
+      <c r="I99" s="5">
+        <v>1</v>
+      </c>
+      <c r="J99" s="5">
+        <v>26</v>
+      </c>
+      <c r="K99" s="5">
+        <v>2</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0</v>
+      </c>
+      <c r="M99" s="5">
+        <v>10</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0</v>
+      </c>
+      <c r="O99" s="5">
+        <v>80</v>
+      </c>
+      <c r="P99" s="5">
+        <v>120</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>160</v>
+      </c>
+      <c r="R99" s="5">
+        <v>200</v>
+      </c>
+      <c r="S99" s="5">
+        <v>250</v>
+      </c>
+      <c r="T99" s="5">
+        <v>310</v>
+      </c>
+      <c r="U99" s="5">
+        <v>370</v>
+      </c>
+      <c r="V99" s="5">
+        <v>460</v>
+      </c>
+      <c r="W99" s="5">
+        <v>560</v>
+      </c>
+      <c r="X99" s="5">
+        <v>700</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA99" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB99" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC99" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD99" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE99" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF99" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG99" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH99" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM99" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN99" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO99" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP99" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ99" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR99" s="5">
+        <v>3</v>
+      </c>
+      <c r="AS99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL99" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:63">
       <c r="A100" s="2"/>

--- a/jyx2/excel/JYX2武功.xlsx
+++ b/jyx2/excel/JYX2武功.xlsx
@@ -1754,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:BL201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="U19" workbookViewId="0">
+      <selection activeCell="AG52" sqref="AG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/jyx2/excel/JYX2武功.xlsx
+++ b/jyx2/excel/JYX2武功.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17860"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -674,10 +674,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -711,9 +711,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,56 +770,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -784,17 +786,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,33 +802,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -847,6 +825,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -877,7 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,25 +895,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,43 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,19 +973,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,19 +1009,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,19 +1045,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,21 +1087,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1112,39 +1097,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,7 +1120,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,157 +1188,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1754,11 +1754,11 @@
   <sheetPr/>
   <dimension ref="A1:BL201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U19" workbookViewId="0">
-      <selection activeCell="AG52" sqref="AG52"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:64">
       <c r="A1" s="2" t="s">
@@ -20578,7 +20578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:64">
+    <row r="98" ht="14.5" spans="1:64">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>26</v>
       </c>
       <c r="K99" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L99" s="5">
         <v>0</v>

--- a/jyx2/excel/JYX2武功.xlsx
+++ b/jyx2/excel/JYX2武功.xlsx
@@ -663,7 +663,7 @@
     <t>医疗</t>
   </si>
   <si>
-    <t>蟒牯朱蛤</t>
+    <t>莽牯朱蛤</t>
   </si>
   <si>
     <t>暗器</t>
@@ -674,10 +674,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -719,6 +719,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -732,38 +753,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -778,11 +769,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -793,11 +800,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -817,13 +824,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -832,16 +832,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,6 +850,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,13 +877,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,13 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,31 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,13 +967,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,25 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,49 +1051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,6 +1116,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1149,21 +1164,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1188,31 +1188,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,22 +1230,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1245,100 +1242,103 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1754,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:BL201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M103" sqref="M103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
